--- a/municipal/ENG/Social Statistic/Pensioners/Kakheti/Sighnaghi.xlsx
+++ b/municipal/ENG/Social Statistic/Pensioners/Kakheti/Sighnaghi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\Social_Stat\სოციალური სტატ\პენსიის მიმღებები\კახეთი\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\საბოლოო მაჩვენებლები\სოციალური ქარ. EN\Social Statistic\Pensioners\Kakheti\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -55,7 +55,7 @@
     <t>Source: Ministry of internally displaced persons from the occupied territories, Labour, Health and Social Affairs of Georgia.</t>
   </si>
   <si>
-    <t>Persons Receiving Pension in Sighnaghi</t>
+    <t>Persons Receiving Pension in Sighnaghi municipality</t>
   </si>
 </sst>
 </file>
@@ -494,7 +494,7 @@
   <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
